--- a/run_search results.xlsx
+++ b/run_search results.xlsx
@@ -423,7 +423,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,7 +784,21 @@
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="C16" s="2">
+        <v>408</v>
+      </c>
+      <c r="D16" s="2">
+        <v>410</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3758</v>
+      </c>
+      <c r="F16" s="3">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2">
+        <v>586.231951499042</v>
+      </c>
     </row>
     <row r="17" spans="6:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F17" s="3"/>
